--- a/excel/地图数据.xlsx
+++ b/excel/地图数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13380"/>
+    <workbookView windowWidth="10668" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="地图数据" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
-  <si>
-    <t>地图名称</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+  <si>
+    <t>地图名称_英文</t>
+  </si>
+  <si>
+    <t>地图名称_中文</t>
   </si>
   <si>
     <t>实际宽</t>
@@ -45,82 +48,160 @@
     <t>更新时间</t>
   </si>
   <si>
+    <t>AlBasrah</t>
+  </si>
+  <si>
+    <t>巴士拉</t>
+  </si>
+  <si>
     <t>Anvil</t>
   </si>
   <si>
-    <t>AlBasrah</t>
+    <t>铁砧行动</t>
   </si>
   <si>
     <t>Belaya</t>
   </si>
   <si>
+    <t>别拉亚河谷</t>
+  </si>
+  <si>
     <t>BlackCoast</t>
   </si>
   <si>
+    <t>黑色海岸</t>
+  </si>
+  <si>
     <t>Chora</t>
   </si>
   <si>
+    <t>乔拉</t>
+  </si>
+  <si>
     <t>Fallujah</t>
   </si>
   <si>
+    <t>费卢杰</t>
+  </si>
+  <si>
     <t>Fool's Road</t>
   </si>
   <si>
+    <t>愚者之路</t>
+  </si>
+  <si>
     <t>GooseBay</t>
   </si>
   <si>
+    <t>鹅湾</t>
+  </si>
+  <si>
     <t>Gorodok</t>
   </si>
   <si>
+    <t>格洛多克</t>
+  </si>
+  <si>
     <t>Harju</t>
   </si>
   <si>
+    <t>哈留</t>
+  </si>
+  <si>
     <t>Jensen'sRange</t>
   </si>
   <si>
+    <t>詹森训练基地</t>
+  </si>
+  <si>
     <t>KamdeshHighlands</t>
   </si>
   <si>
+    <t>卡玛徳什高地</t>
+  </si>
+  <si>
     <t>KohatToi</t>
   </si>
   <si>
+    <t>科哈特托伊</t>
+  </si>
+  <si>
     <t>Kokan</t>
   </si>
   <si>
+    <t>科坎</t>
+  </si>
+  <si>
     <t>LashkarValley</t>
   </si>
   <si>
+    <t>拉什卡</t>
+  </si>
+  <si>
     <t>LogarValley</t>
   </si>
   <si>
+    <t>洛加尔山谷</t>
+  </si>
+  <si>
     <t>Manicouagan</t>
   </si>
   <si>
+    <t>曼尼古根</t>
+  </si>
+  <si>
     <t>Mestia</t>
   </si>
   <si>
+    <t>梅斯蒂亚</t>
+  </si>
+  <si>
     <t>Mutaha</t>
   </si>
   <si>
+    <t>穆塔哈</t>
+  </si>
+  <si>
     <t>Narva</t>
   </si>
   <si>
+    <t>纳尔瓦</t>
+  </si>
+  <si>
     <t>PacificProvingGrounds</t>
   </si>
   <si>
+    <t>太平洋训练基地</t>
+  </si>
+  <si>
     <t>SanxianIslands</t>
   </si>
   <si>
+    <t>三贤岛</t>
+  </si>
+  <si>
     <t>Skorpo</t>
   </si>
   <si>
+    <t>斯科普</t>
+  </si>
+  <si>
     <t>SumariBala</t>
   </si>
   <si>
+    <t>索马瑞</t>
+  </si>
+  <si>
     <t>TallilOutskirts</t>
   </si>
   <si>
+    <t>塔利尔</t>
+  </si>
+  <si>
     <t>Yehorivka</t>
+  </si>
+  <si>
+    <t>叶霍里夫卡</t>
   </si>
   <si>
     <t>地图</t>
@@ -213,7 +294,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +305,17 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -693,137 +785,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,6 +947,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1382,22 +1480,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="23.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="19.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="22.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="22.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="10.7777777777778"/>
+    <col min="2" max="3" width="19.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="22.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="26.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1413,446 +1511,527 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>3040</v>
+      </c>
+      <c r="D2">
+        <v>3040</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>3060</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>3060</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E3" s="8">
         <v>0.45</v>
       </c>
-      <c r="E2" s="9">
+      <c r="F3" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>3040</v>
-      </c>
-      <c r="C3">
-        <v>3040</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="9">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>3904</v>
+      </c>
+      <c r="D4">
+        <v>3905</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="F4" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3904</v>
-      </c>
-      <c r="C4">
-        <v>3905</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="E4" s="9">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>4599.97984375</v>
+      </c>
+      <c r="D5">
+        <v>4599.9784375</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>4599.97984375</v>
-      </c>
-      <c r="C5">
-        <v>4599.9784375</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="E5" s="9">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>4063.9</v>
+      </c>
+      <c r="D6">
+        <v>4064</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>4063.9</v>
-      </c>
-      <c r="C6">
-        <v>4064</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9">
-        <v>45461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>3005</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C7">
         <v>3005</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7">
+        <v>3005</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1773.82</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1773.82</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
+        <v>1773.82</v>
+      </c>
+      <c r="E8" s="8">
         <v>3.2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
         <v>4031.8096875</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>4031.77921875</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>0.4</v>
       </c>
-      <c r="E9" s="9">
+      <c r="F9" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>4064</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C10">
         <v>4064</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10">
+        <v>4064</v>
+      </c>
+      <c r="E10" s="8">
         <v>10</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F10" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>4032</v>
+        <v>24</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C11">
         <v>4032</v>
       </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11">
+        <v>4032</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>4008</v>
+        <v>26</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C12">
         <v>4008</v>
       </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12">
+        <v>4008</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>4032</v>
+        <v>28</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C13">
         <v>4032</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
+        <v>4032</v>
+      </c>
+      <c r="E13" s="8">
         <v>1.35</v>
       </c>
-      <c r="E13" s="9">
+      <c r="F13" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>4617</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C14">
         <v>4617</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14">
+        <v>4617</v>
+      </c>
+      <c r="E14" s="8">
         <v>0.75</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F14" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
         <v>2496.48609375</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2495.80421875</v>
       </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>4334</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C16">
         <v>4334</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16">
+        <v>4334</v>
+      </c>
+      <c r="E16" s="8">
         <v>1.5</v>
       </c>
-      <c r="E16" s="9">
+      <c r="F16" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
+        <v>36</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
         <v>1761.2346875</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1761.6046875</v>
       </c>
-      <c r="D17" s="8">
+      <c r="E17" s="8">
         <v>0.5</v>
       </c>
-      <c r="E17" s="9">
+      <c r="F17" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
+        <v>38</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
         <v>4031.8096875</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>4031.77921875</v>
       </c>
-      <c r="D18" s="8">
+      <c r="E18" s="8">
         <v>3</v>
       </c>
-      <c r="E18" s="9">
+      <c r="F18" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>2400</v>
+        <v>40</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C19">
         <v>2400</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19">
+        <v>2400</v>
+      </c>
+      <c r="E19" s="8">
         <v>1.2</v>
       </c>
-      <c r="E19" s="9">
+      <c r="F19" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>2755</v>
+        <v>42</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C20">
         <v>2755</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20">
+        <v>2755</v>
+      </c>
+      <c r="E20" s="8">
         <v>0.3</v>
       </c>
-      <c r="E20" s="9">
+      <c r="F20" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
+        <v>44</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
         <v>2800.000625</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>2799.99953125</v>
       </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>4032</v>
+        <v>46</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C22">
         <v>4032</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22">
+        <v>4032</v>
+      </c>
+      <c r="E22" s="8">
         <v>0.28</v>
       </c>
-      <c r="E22" s="9">
+      <c r="F22" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>4600</v>
+        <v>48</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C23">
         <v>4600</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23">
+        <v>4600</v>
+      </c>
+      <c r="E23" s="8">
         <v>3.5</v>
       </c>
-      <c r="E23" s="9">
+      <c r="F23" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>7600</v>
+        <v>50</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C24">
         <v>7600</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24">
+        <v>7600</v>
+      </c>
+      <c r="E24" s="8">
         <v>0.75</v>
       </c>
-      <c r="E24" s="9">
+      <c r="F24" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
+        <v>52</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
         <v>1300.07503906</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1300.253125</v>
       </c>
-      <c r="D25" s="8">
+      <c r="E25" s="8">
         <v>1.25</v>
       </c>
-      <c r="E25" s="9">
+      <c r="F25" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
+        <v>54</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
         <v>4680.00015625</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4680</v>
       </c>
-      <c r="D26" s="8">
+      <c r="E26" s="8">
         <v>4</v>
       </c>
-      <c r="E26" s="9">
+      <c r="F26" s="9">
         <v>45461</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <v>6350</v>
+        <v>56</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C27">
         <v>6350</v>
       </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="D27">
+        <v>6350</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
         <v>45461</v>
       </c>
     </row>
@@ -1892,57 +2071,57 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6">
         <v>-2040</v>
@@ -2054,7 +2233,7 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6">
         <v>-1954</v>
@@ -2110,7 +2289,7 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6">
         <v>2299.9846875</v>
@@ -2174,7 +2353,7 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6">
         <v>-2464</v>
@@ -2238,7 +2417,7 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B7" s="6">
         <v>-1315</v>
@@ -2302,7 +2481,7 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6">
         <v>448.05078125</v>
@@ -2366,7 +2545,7 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6">
         <v>-2016.57890625</v>
@@ -2430,7 +2609,7 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6">
         <v>-2031.99</v>
@@ -2494,7 +2673,7 @@
     </row>
     <row r="11" s="2" customFormat="1" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6">
         <v>-2016</v>
@@ -2558,7 +2737,7 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B12" s="6">
         <v>2004</v>
@@ -2622,7 +2801,7 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B13" s="6">
         <v>-2016</v>
@@ -2686,7 +2865,7 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B14" s="6">
         <v>-2300</v>
@@ -2750,7 +2929,7 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6">
         <v>1420.13671875</v>
@@ -2814,7 +2993,7 @@
     </row>
     <row r="16" s="2" customFormat="1" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B16" s="6">
         <v>2167</v>
@@ -2878,7 +3057,7 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B17" s="6">
         <v>879.78328125</v>
@@ -2942,7 +3121,7 @@
     </row>
     <row r="18" s="2" customFormat="1" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B18" s="6">
         <v>-2016.57890625</v>
@@ -3006,7 +3185,7 @@
     </row>
     <row r="19" s="2" customFormat="1" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B19" s="6">
         <v>1200</v>
@@ -3070,7 +3249,7 @@
     </row>
     <row r="20" s="2" customFormat="1" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B20" s="6">
         <v>-935</v>
@@ -3134,7 +3313,7 @@
     </row>
     <row r="21" s="2" customFormat="1" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B21" s="6">
         <v>-1389.706875</v>
@@ -3198,7 +3377,7 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B22" s="6">
         <v>-2016</v>
@@ -3262,7 +3441,7 @@
     </row>
     <row r="23" s="2" customFormat="1" spans="1:18">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B23" s="6">
         <v>3800</v>
@@ -3326,7 +3505,7 @@
     </row>
     <row r="24" s="2" customFormat="1" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B24" s="6">
         <v>-639.73925781</v>
@@ -3390,7 +3569,7 @@
     </row>
     <row r="25" s="2" customFormat="1" spans="1:18">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B25" s="6">
         <v>-2340.00015625</v>
@@ -3454,7 +3633,7 @@
     </row>
     <row r="26" s="2" customFormat="1" spans="1:18">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B26" s="3">
         <v>-3302</v>
@@ -3518,7 +3697,7 @@
     </row>
     <row r="27" s="2" customFormat="1" spans="1:18">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B27" s="6">
         <v>-2300</v>

--- a/excel/地图数据.xlsx
+++ b/excel/地图数据.xlsx
@@ -84,7 +84,7 @@
     <t>费卢杰</t>
   </si>
   <si>
-    <t>Fool's Road</t>
+    <t>Fool'sRoad</t>
   </si>
   <si>
     <t>愚者之路</t>
@@ -1482,8 +1482,8 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
